--- a/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.64</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.26</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0573</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>519670</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>银河行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.77</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>519655</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>银河现代服务主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519655</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河现代服务主题灵活配置混合</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519670</t>
+          <t>006700</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河行业混合</t>
+          <t>红土创新稳健混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>006701</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>红土创新稳健混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>168.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.53</v>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.24</v>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.98</v>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,187 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1607,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,17 +1619,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1638,14 +1659,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.36</v>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1654,14 +1697,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.53</v>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1670,14 +1735,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.24</v>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1686,14 +1773,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.98</v>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1702,13 +1811,353 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>52.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2040,7 +2041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2051,17 +2052,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2071,14 +2092,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2087,14 +2130,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.36</v>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2103,14 +2168,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.53</v>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4364</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2119,14 +2206,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.24</v>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2135,14 +2244,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.98</v>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2151,13 +2282,789 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>3.66</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.36</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5.24</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2.98</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -600,6 +617,3396 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>293.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4997</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0914</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3942</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2147</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8269</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4272</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>016906</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1489,7 +4896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1921,7 +5328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2165,7 +5572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2328,328 +5735,6 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7755</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000118</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚鑫债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>168.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5645</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2986</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519655</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河现代服务主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4277</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000119</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发聚鑫债券C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1456</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009470</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方欣利混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>38.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009471</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方欣利混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>38.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2724,22 +5809,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.44</t>
+          <t>40.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>96.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2010</t>
+          <t>1.7755</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2752,36 +5837,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519670</t>
+          <t>000118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河行业混合</t>
+          <t>广发聚鑫债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>168.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0501</t>
+          <t>1.5645</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2790,36 +5875,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000698</t>
+          <t>519670</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈科技30灵活配置混合</t>
+          <t>银河行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4531</t>
+          <t>1.2986</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2838,26 +5923,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2707</t>
+          <t>0.4277</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2866,36 +5951,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>000119</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>广发聚鑫债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.1456</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2904,36 +5989,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>009470</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>东方欣利混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>38.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2942,36 +6027,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>009471</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>东方欣利混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>38.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2980,6 +6065,328 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
+++ b/数据整理/stocks/A股/科创板/688777-中控技术.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="D2" t="n">
-        <v>32.75</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>3.66</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.36</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>5.24</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>2.98</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -616,7 +633,5739 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0573</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H148"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>508.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.7894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>169.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9696</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>603.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2450</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1996</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0980</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0698</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定开混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8438</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8284</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7465</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6729</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6374</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5977</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2651</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>41.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016524</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014031</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013630</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012259</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>农银汇理瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>39.33</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014032</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.75</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015217</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏扬成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>016525</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012258</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>95.96</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015491</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>015152</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>015218</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>鹏扬成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011907</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>016906</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>017628</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4006,7 +9755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4896,7 +10645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5328,7 +11077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5572,7 +11321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5735,328 +11484,6 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7755</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000118</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚鑫债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>168.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5645</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519670</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河行业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2986</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519655</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河现代服务主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4277</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000119</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发聚鑫债券C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1456</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009470</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方欣利混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>38.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009471</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方欣利混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>38.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6131,22 +11558,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.44</t>
+          <t>40.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>96.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2010</t>
+          <t>1.7755</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -6159,36 +11586,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519670</t>
+          <t>000118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河行业混合</t>
+          <t>广发聚鑫债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>168.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0501</t>
+          <t>1.5645</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6197,36 +11624,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000698</t>
+          <t>519670</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈科技30灵活配置混合</t>
+          <t>银河行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.02</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4531</t>
+          <t>1.2986</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6245,26 +11672,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2707</t>
+          <t>0.4277</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6273,36 +11700,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>000119</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>广发聚鑫债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.1456</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -6311,36 +11738,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>009470</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>东方欣利混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>38.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -6349,36 +11776,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>009471</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>东方欣利混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>38.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6392,90 +11819,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519670</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河行业混合</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>78.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0573</t>
+          <t>1.2010</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>